--- a/EquipoComputo.xlsx
+++ b/EquipoComputo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/071546c403d7e1d8/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/071546c403d7e1d8/Documentos/VSCode/EquipoC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{F1CEB657-124B-41D4-B154-1920F60F51EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01A03374-E265-45FA-8FE6-BD0B5EB99DF0}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{F1CEB657-124B-41D4-B154-1920F60F51EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D16536F-3C22-4717-9D2C-F40442A5F43C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{9BA4F804-CE62-49A9-9FFB-7B8C927333AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9BA4F804-CE62-49A9-9FFB-7B8C927333AB}"/>
   </bookViews>
   <sheets>
     <sheet name="IPN" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <t>IPN</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t>Rama</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -375,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -389,6 +386,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,6 +404,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -723,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5ED77C-9D5C-4081-AAF1-6F54A8626B59}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,9 +763,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -791,10 +793,7 @@
       <c r="I2" s="4">
         <v>2476</v>
       </c>
-      <c r="J2" s="6">
-        <f>SUM(B2:I2)</f>
-        <v>43390</v>
-      </c>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -824,10 +823,7 @@
       <c r="I3" s="4">
         <v>3210</v>
       </c>
-      <c r="J3" s="6">
-        <f t="shared" ref="J3:J4" si="0">SUM(B3:I3)</f>
-        <v>63428</v>
-      </c>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -857,10 +853,10 @@
       <c r="I4" s="2">
         <v>732</v>
       </c>
-      <c r="J4" s="6">
-        <f t="shared" si="0"/>
-        <v>10241</v>
-      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2834,7 +2830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC782ACF-311F-486E-B06F-172055688EC1}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>

--- a/EquipoComputo.xlsx
+++ b/EquipoComputo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/071546c403d7e1d8/Documentos/VSCode/EquipoC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Palac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{F1CEB657-124B-41D4-B154-1920F60F51EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D16536F-3C22-4717-9D2C-F40442A5F43C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B07CEA5-C9D7-413F-9F7C-EF53B05982FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9BA4F804-CE62-49A9-9FFB-7B8C927333AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9BA4F804-CE62-49A9-9FFB-7B8C927333AB}"/>
   </bookViews>
   <sheets>
     <sheet name="IPN" sheetId="1" r:id="rId1"/>
@@ -404,10 +404,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -729,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5ED77C-9D5C-4081-AAF1-6F54A8626B59}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1706,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6875788D-30AC-4F1E-B604-B0A0D64D5D2A}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,7 +2218,7 @@
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2254,12 +2250,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2268,25 +2264,25 @@
         <v>422</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2318,7 +2314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2350,7 +2346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2382,7 +2378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2411,7 +2407,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2442,8 +2438,9 @@
       <c r="J23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2475,7 +2472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2507,7 +2504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2539,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2571,7 +2568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2603,7 +2600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2632,7 +2629,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2664,7 +2661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2696,7 +2693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>

--- a/EquipoComputo.xlsx
+++ b/EquipoComputo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Palac\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/071546c403d7e1d8/Documentos/VSCode/EquipoC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B07CEA5-C9D7-413F-9F7C-EF53B05982FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{F1CEB657-124B-41D4-B154-1920F60F51EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EE4E62A-C02B-4BA2-8B13-CF85727C1B11}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9BA4F804-CE62-49A9-9FFB-7B8C927333AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9BA4F804-CE62-49A9-9FFB-7B8C927333AB}"/>
   </bookViews>
   <sheets>
     <sheet name="IPN" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>IPN</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Personal Directivo y de Mando</t>
   </si>
   <si>
-    <t>Personal de Apoyo y Asistencia a la Educación</t>
-  </si>
-  <si>
     <t>Nivel Medio Superior</t>
   </si>
   <si>
@@ -321,13 +318,19 @@
   </si>
   <si>
     <t>Rama</t>
+  </si>
+  <si>
+    <t>PAAE</t>
+  </si>
+  <si>
+    <t>Equipo sin Conexión a Internet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +347,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,10 +397,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,6 +416,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -725,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5ED77C-9D5C-4081-AAF1-6F54A8626B59}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,25 +761,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>14562</v>
@@ -774,26 +792,29 @@
       <c r="D2" s="4">
         <v>14216</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
+        <f>B2-D2</f>
+        <v>346</v>
+      </c>
+      <c r="F2" s="4">
         <v>9719</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>1749</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>29</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>589</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>2476</v>
       </c>
-      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>21189</v>
@@ -804,26 +825,29 @@
       <c r="D3" s="4">
         <v>20865</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
+        <f>B3-D3</f>
+        <v>324</v>
+      </c>
+      <c r="F3" s="4">
         <v>10143</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>4968</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>1722</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>1146</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>3210</v>
       </c>
-      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
         <v>3402</v>
@@ -834,24 +858,40 @@
       <c r="D4" s="4">
         <v>3318</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
+        <f>B4-D4</f>
+        <v>84</v>
+      </c>
+      <c r="F4" s="2">
         <v>793</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>647</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>912</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>318</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>732</v>
       </c>
-      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="5"/>
       <c r="I7" s="5"/>
     </row>
   </sheetData>
@@ -864,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E664BE4F-9FD6-43EF-94EF-90A18586CF5F}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +917,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -900,16 +940,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
+      <c r="I1" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>9257</v>
@@ -924,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>19</v>
@@ -933,12 +973,12 @@
         <v>358</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1">
         <v>1059</v>
@@ -971,7 +1011,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1">
         <v>1845</v>
@@ -1003,7 +1043,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>859</v>
@@ -1035,7 +1075,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>705</v>
@@ -1067,7 +1107,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>812</v>
@@ -1099,7 +1139,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>639</v>
@@ -1131,7 +1171,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>723</v>
@@ -1163,7 +1203,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>820</v>
@@ -1195,7 +1235,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>941</v>
@@ -1227,7 +1267,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>854</v>
@@ -1259,7 +1299,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
         <v>1399</v>
@@ -1288,7 +1328,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>952</v>
@@ -1320,7 +1360,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <v>447</v>
@@ -1352,7 +1392,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1">
         <v>3196</v>
@@ -1364,7 +1404,7 @@
         <v>3196</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16">
         <v>352</v>
@@ -1381,7 +1421,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>740</v>
@@ -1413,7 +1453,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>591</v>
@@ -1445,7 +1485,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1">
         <v>1049</v>
@@ -1477,7 +1517,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20">
         <v>816</v>
@@ -1509,7 +1549,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <v>710</v>
@@ -1538,7 +1578,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22">
         <v>44</v>
@@ -1570,7 +1610,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>306</v>
@@ -1602,7 +1642,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24">
         <v>173</v>
@@ -1634,7 +1674,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25">
         <v>187</v>
@@ -1666,7 +1706,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1">
         <v>14562</v>
@@ -1702,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6875788D-30AC-4F1E-B604-B0A0D64D5D2A}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,7 +1753,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1736,16 +1776,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
+      <c r="I1" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>9898</v>
@@ -1774,7 +1814,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>2237</v>
@@ -1806,7 +1846,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>865</v>
@@ -1838,7 +1878,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>822</v>
@@ -1870,7 +1910,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>521</v>
@@ -1902,7 +1942,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>811</v>
@@ -1934,7 +1974,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>665</v>
@@ -1966,7 +2006,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>320</v>
@@ -1998,7 +2038,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>228</v>
@@ -2030,7 +2070,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>1888</v>
@@ -2039,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>497</v>
@@ -2062,7 +2102,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>581</v>
@@ -2094,7 +2134,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>960</v>
@@ -2126,7 +2166,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>3537</v>
@@ -2135,7 +2175,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1">
         <v>2192</v>
@@ -2155,7 +2195,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
         <v>1298</v>
@@ -2187,7 +2227,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>516</v>
@@ -2218,9 +2258,9 @@
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>931</v>
@@ -2250,41 +2290,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5">
         <v>422</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
         <v>422</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>219</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>76</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>13</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>30</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <v>51</v>
       </c>
       <c r="J18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>278</v>
@@ -2314,9 +2354,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>326</v>
@@ -2346,9 +2386,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>188</v>
@@ -2378,9 +2418,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1">
         <v>4179</v>
@@ -2407,9 +2447,9 @@
         <v>806</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>547</v>
@@ -2438,11 +2478,10 @@
       <c r="J23">
         <v>2</v>
       </c>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1">
         <v>1656</v>
@@ -2472,9 +2511,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1">
         <v>1062</v>
@@ -2504,9 +2543,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>281</v>
@@ -2536,9 +2575,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>229</v>
@@ -2568,9 +2607,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>404</v>
@@ -2600,9 +2639,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1">
         <v>3575</v>
@@ -2629,9 +2668,9 @@
         <v>826</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1">
         <v>1349</v>
@@ -2661,9 +2700,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>819</v>
@@ -2693,9 +2732,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>405</v>
@@ -2727,7 +2766,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>697</v>
@@ -2759,7 +2798,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>305</v>
@@ -2791,7 +2830,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1">
         <v>21189</v>
@@ -2815,7 +2854,7 @@
         <v>1146</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2828,7 +2867,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2840,7 +2879,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2863,16 +2902,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
+      <c r="I1" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>1701</v>
@@ -2902,7 +2941,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>652</v>
@@ -2934,7 +2973,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>166</v>
@@ -2966,7 +3005,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -2998,7 +3037,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>103</v>
@@ -3030,7 +3069,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>144</v>
@@ -3062,7 +3101,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -3094,7 +3133,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9">
         <v>86</v>
@@ -3126,7 +3165,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>210</v>
@@ -3158,7 +3197,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>126</v>
@@ -3190,7 +3229,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>84</v>
@@ -3219,7 +3258,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
         <v>1555</v>
@@ -3249,7 +3288,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14">
         <v>342</v>
@@ -3281,7 +3320,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15">
         <v>127</v>
@@ -3313,7 +3352,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16">
         <v>174</v>
@@ -3345,7 +3384,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17">
         <v>194</v>
@@ -3377,7 +3416,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18">
         <v>103</v>
@@ -3409,7 +3448,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19">
         <v>242</v>
@@ -3442,7 +3481,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20">
         <v>243</v>
@@ -3474,7 +3513,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21">
         <v>130</v>
@@ -3506,7 +3545,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>146</v>
@@ -3535,7 +3574,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23">
         <v>146</v>
@@ -3567,7 +3606,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1">
         <v>3402</v>
